--- a/young_1_0/dist/conf/all_name.xlsx
+++ b/young_1_0/dist/conf/all_name.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22479\Desktop\fentuanwei\9.22周三\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PyCode\yongStudy\young_1_0\dist\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA468DB0-E74F-413C-981B-9D87DB95979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37716889-AEE9-4085-8106-83AC8EB968A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19级" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="506">
   <si>
     <t>33/39</t>
   </si>
@@ -1638,6 +1638,22 @@
   </si>
   <si>
     <t>38/38</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王皓然</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨轩</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>管永洋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁浩轩</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2062,28 +2078,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.58203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="19.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="19.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" style="3" customWidth="1"/>
     <col min="12" max="12" width="22.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="29.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -2206,7 +2222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -2247,7 +2263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
@@ -2329,7 +2345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -2370,7 +2386,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -2411,7 +2427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>103</v>
       </c>
@@ -2452,7 +2468,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>116</v>
       </c>
@@ -2493,7 +2509,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>129</v>
       </c>
@@ -2534,7 +2550,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>142</v>
       </c>
@@ -2575,7 +2591,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>155</v>
       </c>
@@ -2616,7 +2632,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>168</v>
       </c>
@@ -2657,7 +2673,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>181</v>
       </c>
@@ -2698,7 +2714,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>194</v>
       </c>
@@ -2739,7 +2755,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>207</v>
       </c>
@@ -2780,7 +2796,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>220</v>
       </c>
@@ -2821,7 +2837,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>233</v>
       </c>
@@ -2862,7 +2878,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>246</v>
       </c>
@@ -2903,7 +2919,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>259</v>
       </c>
@@ -2944,7 +2960,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>272</v>
       </c>
@@ -2985,7 +3001,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>285</v>
       </c>
@@ -3026,7 +3042,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>298</v>
       </c>
@@ -3067,7 +3083,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>311</v>
       </c>
@@ -3108,7 +3124,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>324</v>
       </c>
@@ -3149,7 +3165,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>337</v>
       </c>
@@ -3190,7 +3206,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>350</v>
       </c>
@@ -3231,7 +3247,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>363</v>
       </c>
@@ -3272,7 +3288,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>376</v>
       </c>
@@ -3313,7 +3329,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>389</v>
       </c>
@@ -3354,7 +3370,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>402</v>
       </c>
@@ -3393,7 +3409,7 @@
       </c>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>414</v>
       </c>
@@ -3432,7 +3448,7 @@
       </c>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>426</v>
       </c>
@@ -3471,7 +3487,7 @@
       </c>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>438</v>
       </c>
@@ -3506,7 +3522,7 @@
       </c>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>448</v>
@@ -3536,7 +3552,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
         <v>455</v>
@@ -3566,7 +3582,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>462</v>
@@ -3594,7 +3610,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
         <v>468</v>
@@ -3622,12 +3638,14 @@
       <c r="M39" s="5"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>502</v>
+      </c>
       <c r="D40" s="5" t="s">
         <v>474</v>
       </c>
@@ -3648,10 +3666,12 @@
       <c r="M40" s="5"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="D41" s="5" t="s">
         <v>478</v>
       </c>
@@ -3672,10 +3692,12 @@
       <c r="M41" s="5"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>504</v>
+      </c>
       <c r="D42" s="5" t="s">
         <v>482</v>
       </c>
@@ -3696,10 +3718,12 @@
       <c r="M42" s="5"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>505</v>
+      </c>
       <c r="D43" s="5" t="s">
         <v>486</v>
       </c>
@@ -3718,7 +3742,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3738,7 +3762,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3758,7 +3782,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3778,7 +3802,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3796,7 +3820,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3814,7 +3838,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3831,7 +3855,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3848,7 +3872,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3865,7 +3889,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3882,7 +3906,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -3897,7 +3921,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3912,7 +3936,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3927,7 +3951,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -3942,7 +3966,7 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -3957,7 +3981,7 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3972,7 +3996,7 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3987,7 +4011,7 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -4002,7 +4026,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -4017,7 +4041,7 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -4032,7 +4056,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -4047,7 +4071,7 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4062,7 +4086,7 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4077,7 +4101,7 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -4092,7 +4116,7 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4107,7 +4131,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -4122,7 +4146,7 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -4137,7 +4161,7 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
